--- a/PRUEBAS_PAULA/SQL_orgnizacion_tablas_COLORES_PAULA.xlsx
+++ b/PRUEBAS_PAULA/SQL_orgnizacion_tablas_COLORES_PAULA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jjaavviieerroperro\Desktop\Bootcamp DS\RepositoriosGitHub\Proyectos\Proyecto_sqlite\SQLite\PRUEBAS_PAULA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99942E1F-B41D-47B0-89BB-70A1E7103B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E84B33F-7420-479E-BD69-A487B4FFB464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>ESTUDIANTE</t>
   </si>
@@ -318,9 +318,6 @@
     <t>fundamentals</t>
   </si>
   <si>
-    <t>apto</t>
-  </si>
-  <si>
     <t>FULL TIME</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
   </si>
   <si>
     <t>EDA</t>
-  </si>
-  <si>
-    <t>no apto</t>
   </si>
   <si>
     <r>
@@ -669,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -705,12 +699,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -785,6 +792,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1078,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1170,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -1281,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1293,10 +1307,10 @@
         <v>34633</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5">
         <v>123</v>
@@ -1308,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1333,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1347,17 +1361,14 @@
       <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>67</v>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1369,19 +1380,17 @@
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="5">
         <v>123</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1389,21 +1398,19 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <v>123</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1412,11 +1419,11 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1441,7 +1448,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -1451,10 +1458,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1526,22 +1533,22 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1552,7 +1559,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="20">
         <v>45187</v>
@@ -1609,7 +1616,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>10</v>
@@ -1624,7 +1631,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>42</v>
@@ -1642,7 +1649,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1658,10 +1665,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1682,7 +1689,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -1700,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
